--- a/DF_DescricaoCrypto.xlsx
+++ b/DF_DescricaoCrypto.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo\Documents\#JupyterNotebooks\EconomiaMercadoFinanceiro\#PrototiposStreamlit\#Prototipo_Quant_MM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20E62D2-51E8-40F3-A4F7-61BB6448916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41663D51-15C4-4B21-990E-B2BC87EF3D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3975" yWindow="3075" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DescricaoEmpresas_BR" sheetId="1" r:id="rId1"/>
+    <sheet name="DescricaoCrypto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,12 +96,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,7 +156,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +496,9 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="3"/>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
